--- a/src/test/resources/org/sample/AppUiTest.xlsx
+++ b/src/test/resources/org/sample/AppUiTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15075" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15075" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -91,22 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>linkText</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,22 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -193,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>selectRadio</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -225,19 +189,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>switchToWindowByName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>switchToWindowByIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -274,14 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CheckBox選択</t>
     <rPh sb="8" eb="10">
       <t>センタク</t>
@@ -306,6 +254,204 @@
   </si>
   <si>
     <t>xpath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userAgent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.aplus.co.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body &gt; div.top-visual &gt; div &gt; div.top-primary &gt; div &gt; div:nth-child(2) &gt; a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windowのスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID入力</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#webMemberId</t>
+  </si>
+  <si>
+    <t>password入力</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#webMemberPass</t>
+  </si>
+  <si>
+    <t>body &gt; div &gt; div &gt; form &gt; article &gt; div.row &gt; div.col-4 &gt; div &gt; div:nth-child(4) &gt; input</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックスのインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックスのテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックスの値</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力する値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行するjavascript</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>closeWindowByName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>closeToWindowByIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -743,11 +889,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -773,19 +917,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -793,19 +937,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -822,212 +966,271 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1040,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1055,7 +1258,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1064,83 +1267,145 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
